--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="131">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,15 +116,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,195 +188,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李白1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白2</t>
+  </si>
+  <si>
+    <t>李白3</t>
+  </si>
+  <si>
+    <t>李白4</t>
+  </si>
+  <si>
+    <t>李白5</t>
+  </si>
+  <si>
+    <t>李白6</t>
+  </si>
+  <si>
+    <t>李白7</t>
+  </si>
+  <si>
+    <t>李白8</t>
+  </si>
+  <si>
+    <t>李白9</t>
+  </si>
+  <si>
+    <t>李白10</t>
+  </si>
+  <si>
+    <t>李白11</t>
+  </si>
+  <si>
+    <t>李白12</t>
+  </si>
+  <si>
+    <t>李白13</t>
+  </si>
+  <si>
+    <t>李白14</t>
+  </si>
+  <si>
+    <t>李白15</t>
+  </si>
+  <si>
+    <t>李白16</t>
+  </si>
+  <si>
+    <t>李白17</t>
+  </si>
+  <si>
+    <t>李白18</t>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-  </si>
-  <si>
-    <t>请输入验证码</t>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡为空-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码为空-绑卡失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白2</t>
-  </si>
-  <si>
-    <t>李白3</t>
-  </si>
-  <si>
-    <t>李白4</t>
-  </si>
-  <si>
-    <t>李白5</t>
-  </si>
-  <si>
-    <t>李白6</t>
-  </si>
-  <si>
-    <t>李白7</t>
-  </si>
-  <si>
-    <t>李白8</t>
-  </si>
-  <si>
-    <t>李白9</t>
-  </si>
-  <si>
-    <t>李白10</t>
-  </si>
-  <si>
-    <t>李白11</t>
-  </si>
-  <si>
-    <t>李白12</t>
-  </si>
-  <si>
-    <t>李白13</t>
-  </si>
-  <si>
-    <t>李白14</t>
-  </si>
-  <si>
-    <t>李白15</t>
-  </si>
-  <si>
-    <t>李白16</t>
-  </si>
-  <si>
-    <t>李白17</t>
-  </si>
-  <si>
-    <t>李白18</t>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getUsedBankCard(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正例-绑卡成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,68 +431,6 @@
     <t>李白30</t>
   </si>
   <si>
-    <t>李白31</t>
-  </si>
-  <si>
-    <t>李白32</t>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUsedBankCard(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,7 +451,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入有效的银行卡号</t>
+    <t>银行卡已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,17 +868,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="39.375" bestFit="1" customWidth="1"/>
@@ -950,7 +889,7 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="44" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -960,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -1005,66 +944,66 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>6</v>
@@ -1072,19 +1011,19 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1099,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
@@ -1111,16 +1050,16 @@
         <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>6</v>
@@ -1128,19 +1067,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
@@ -1155,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
@@ -1167,16 +1106,16 @@
         <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>6</v>
@@ -1187,16 +1126,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
@@ -1211,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>16</v>
@@ -1223,16 +1162,16 @@
         <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>6</v>
@@ -1240,19 +1179,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -1267,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>16</v>
@@ -1279,16 +1218,16 @@
         <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>6</v>
@@ -1299,16 +1238,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -1323,7 +1262,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
@@ -1335,16 +1274,16 @@
         <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>6</v>
@@ -1352,19 +1291,19 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
@@ -1379,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>16</v>
@@ -1391,16 +1330,16 @@
         <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>6</v>
@@ -1408,19 +1347,19 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
@@ -1435,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>16</v>
@@ -1447,16 +1386,16 @@
         <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>6</v>
@@ -1464,19 +1403,19 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -1491,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
@@ -1503,16 +1442,16 @@
         <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>6</v>
@@ -1520,19 +1459,19 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -1547,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
@@ -1559,16 +1498,16 @@
         <v>23</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>6</v>
@@ -1576,19 +1515,19 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
@@ -1603,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>16</v>
@@ -1615,16 +1554,16 @@
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>6</v>
@@ -1632,19 +1571,19 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
@@ -1659,7 +1598,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>16</v>
@@ -1671,16 +1610,16 @@
         <v>23</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>6</v>
@@ -1691,16 +1630,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
@@ -1715,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>16</v>
@@ -1727,16 +1666,16 @@
         <v>23</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>6</v>
@@ -1747,16 +1686,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -1771,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>16</v>
@@ -1783,16 +1722,16 @@
         <v>23</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>6</v>
@@ -1800,19 +1739,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
@@ -1827,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>16</v>
@@ -1839,16 +1778,16 @@
         <v>23</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>6</v>
@@ -1859,16 +1798,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>22</v>
@@ -1883,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>16</v>
@@ -1898,13 +1837,13 @@
         <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q17" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>6</v>
@@ -1912,19 +1851,19 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
@@ -1939,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>16</v>
@@ -1951,16 +1890,16 @@
         <v>23</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>6</v>
@@ -1968,19 +1907,19 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>22</v>
@@ -1995,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>16</v>
@@ -2007,16 +1946,16 @@
         <v>23</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q19" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
@@ -2027,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
@@ -2051,7 +1990,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>16</v>
@@ -2063,16 +2002,16 @@
         <v>23</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>6</v>
@@ -2080,19 +2019,19 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>22</v>
@@ -2107,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>16</v>
@@ -2119,16 +2058,16 @@
         <v>23</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q21" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -2139,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>22</v>
@@ -2163,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>16</v>
@@ -2175,16 +2114,16 @@
         <v>23</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q22" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>6</v>
@@ -2192,19 +2131,19 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>22</v>
@@ -2219,7 +2158,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
@@ -2231,16 +2170,16 @@
         <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q23" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>6</v>
@@ -2248,19 +2187,19 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -2275,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>16</v>
@@ -2287,16 +2226,16 @@
         <v>23</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q24" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>6</v>
@@ -2304,19 +2243,19 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>22</v>
@@ -2331,7 +2270,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>16</v>
@@ -2343,16 +2282,16 @@
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q25" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>6</v>
@@ -2360,19 +2299,19 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>22</v>
@@ -2387,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>16</v>
@@ -2399,16 +2338,16 @@
         <v>23</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q26" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>6</v>
@@ -2416,19 +2355,19 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>22</v>
@@ -2443,7 +2382,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>16</v>
@@ -2455,16 +2394,16 @@
         <v>23</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>6</v>
@@ -2472,19 +2411,19 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>22</v>
@@ -2499,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>16</v>
@@ -2511,16 +2450,16 @@
         <v>23</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>6</v>
@@ -2531,16 +2470,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>22</v>
@@ -2555,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>16</v>
@@ -2567,16 +2506,16 @@
         <v>23</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q29" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>6</v>
@@ -2587,16 +2526,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>22</v>
@@ -2611,7 +2550,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>16</v>
@@ -2623,16 +2562,16 @@
         <v>23</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>6</v>
@@ -2640,19 +2579,19 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>22</v>
@@ -2667,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>16</v>
@@ -2679,126 +2618,18 @@
         <v>23</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q31" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2827,12 +2658,12 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2840,12 +2671,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2855,7 +2686,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2865,32 +2696,32 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2905,7 +2736,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2915,12 +2746,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -2930,7 +2761,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2940,32 +2771,32 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:1">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -451,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行卡已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdBankGenerator.getUsedBankCard(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,6 +508,10 @@
   </si>
   <si>
     <t>${IdBankGenerator.getUsedBankCard(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡已存在！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +871,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1837,13 +1837,13 @@
         <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q17" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>6</v>
@@ -1893,13 +1893,13 @@
         <v>33</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q18" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>6</v>
@@ -1949,13 +1949,13 @@
         <v>63</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q19" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
@@ -2005,13 +2005,13 @@
         <v>34</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>6</v>
@@ -2061,13 +2061,13 @@
         <v>35</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -2117,13 +2117,13 @@
         <v>62</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>6</v>
@@ -2173,13 +2173,13 @@
         <v>36</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q23" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>6</v>
@@ -2229,13 +2229,13 @@
         <v>32</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>6</v>
@@ -2285,13 +2285,13 @@
         <v>61</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q25" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>6</v>
@@ -2341,13 +2341,13 @@
         <v>37</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q26" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>6</v>
@@ -2397,13 +2397,13 @@
         <v>38</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q27" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>6</v>
@@ -2453,13 +2453,13 @@
         <v>39</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q28" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>6</v>
@@ -2509,13 +2509,13 @@
         <v>31</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q29" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>6</v>
@@ -2565,13 +2565,13 @@
         <v>40</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q30" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>6</v>
@@ -2621,13 +2621,13 @@
         <v>60</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
         <v>130</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>115</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>6</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="101">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工商银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,61 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李白1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白2</t>
-  </si>
-  <si>
-    <t>李白3</t>
-  </si>
-  <si>
-    <t>李白4</t>
-  </si>
-  <si>
-    <t>李白5</t>
-  </si>
-  <si>
-    <t>李白6</t>
-  </si>
-  <si>
-    <t>李白7</t>
-  </si>
-  <si>
-    <t>李白8</t>
-  </si>
-  <si>
-    <t>李白9</t>
-  </si>
-  <si>
-    <t>李白10</t>
-  </si>
-  <si>
-    <t>李白11</t>
-  </si>
-  <si>
-    <t>李白12</t>
-  </si>
-  <si>
-    <t>李白13</t>
-  </si>
-  <si>
-    <t>李白14</t>
-  </si>
-  <si>
-    <t>李白15</t>
-  </si>
-  <si>
-    <t>李白16</t>
-  </si>
-  <si>
-    <t>李白17</t>
-  </si>
-  <si>
-    <t>李白18</t>
-  </si>
-  <si>
     <t>邮政储蓄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,42 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李白19</t>
-  </si>
-  <si>
-    <t>李白20</t>
-  </si>
-  <si>
-    <t>李白21</t>
-  </si>
-  <si>
-    <t>李白22</t>
-  </si>
-  <si>
-    <t>李白23</t>
-  </si>
-  <si>
-    <t>李白24</t>
-  </si>
-  <si>
-    <t>李白25</t>
-  </si>
-  <si>
-    <t>李白26</t>
-  </si>
-  <si>
-    <t>李白27</t>
-  </si>
-  <si>
-    <t>李白28</t>
-  </si>
-  <si>
-    <t>李白29</t>
-  </si>
-  <si>
-    <t>李白30</t>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,7 +416,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <t>李双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -903,13 +812,13 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -927,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -956,19 +865,19 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -983,22 +892,22 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>17</v>
@@ -1012,19 +921,19 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -1039,10 +948,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -1051,10 +960,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>17</v>
@@ -1068,19 +977,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -1095,22 +1004,22 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>17</v>
@@ -1127,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1151,10 +1060,10 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
@@ -1163,10 +1072,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>17</v>
@@ -1180,19 +1089,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1207,10 +1116,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
@@ -1219,10 +1128,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>17</v>
@@ -1239,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -1263,10 +1172,10 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1275,10 +1184,10 @@
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>17</v>
@@ -1292,19 +1201,19 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -1319,10 +1228,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
@@ -1331,10 +1240,10 @@
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>17</v>
@@ -1348,19 +1257,19 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -1375,10 +1284,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
@@ -1387,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>17</v>
@@ -1404,19 +1313,19 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -1431,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
@@ -1443,10 +1352,10 @@
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>17</v>
@@ -1460,19 +1369,19 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -1487,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
@@ -1499,10 +1408,10 @@
         <v>20</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>17</v>
@@ -1516,19 +1425,19 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1543,10 +1452,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
@@ -1555,10 +1464,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>17</v>
@@ -1572,19 +1481,19 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -1599,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
@@ -1611,10 +1520,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>17</v>
@@ -1631,46 +1540,46 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>17</v>
@@ -1687,16 +1596,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
@@ -1711,10 +1620,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
@@ -1723,10 +1632,10 @@
         <v>20</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>17</v>
@@ -1740,19 +1649,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -1767,10 +1676,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
@@ -1779,10 +1688,10 @@
         <v>20</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>17</v>
@@ -1799,16 +1708,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
@@ -1823,10 +1732,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
@@ -1838,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q17" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>6</v>
@@ -1852,19 +1761,19 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
@@ -1879,10 +1788,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
@@ -1891,16 +1800,16 @@
         <v>20</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q18" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>6</v>
@@ -1908,19 +1817,19 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1935,10 +1844,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
@@ -1947,16 +1856,16 @@
         <v>20</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q19" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
@@ -1967,16 +1876,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
@@ -1991,10 +1900,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
@@ -2003,16 +1912,16 @@
         <v>20</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q20" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>6</v>
@@ -2020,19 +1929,19 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -2047,28 +1956,28 @@
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="s">
         <v>93</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>124</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -2079,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -2103,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
@@ -2115,16 +2024,16 @@
         <v>20</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q22" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>6</v>
@@ -2132,19 +2041,19 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>19</v>
@@ -2159,10 +2068,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
@@ -2171,16 +2080,16 @@
         <v>20</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q23" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>6</v>
@@ -2188,19 +2097,19 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>19</v>
@@ -2215,10 +2124,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
@@ -2227,16 +2136,16 @@
         <v>20</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q24" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>6</v>
@@ -2244,19 +2153,19 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -2271,10 +2180,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
@@ -2283,16 +2192,16 @@
         <v>20</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q25" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>6</v>
@@ -2300,19 +2209,19 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -2327,10 +2236,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
@@ -2339,16 +2248,16 @@
         <v>20</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q26" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>6</v>
@@ -2356,19 +2265,19 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
@@ -2386,7 +2295,7 @@
         <v>99</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
@@ -2395,16 +2304,16 @@
         <v>20</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q27" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>6</v>
@@ -2412,19 +2321,19 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -2439,10 +2348,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
@@ -2451,16 +2360,16 @@
         <v>20</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q28" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>6</v>
@@ -2471,52 +2380,52 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q29" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>6</v>
@@ -2527,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
@@ -2551,10 +2460,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
@@ -2563,16 +2472,16 @@
         <v>20</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q30" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>6</v>
@@ -2580,19 +2489,19 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
@@ -2607,10 +2516,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
@@ -2619,16 +2528,16 @@
         <v>20</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q31" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>6</v>
@@ -2643,186 +2552,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -180,247 +180,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-已存在的银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡已存在！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-已存在的银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡已存在！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李双双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -812,13 +812,13 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -868,46 +868,46 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>17</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -948,10 +948,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -963,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>17</v>
@@ -977,19 +977,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -1004,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
@@ -1019,7 +1019,7 @@
         <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>17</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1060,10 +1060,10 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
@@ -1075,7 +1075,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>17</v>
@@ -1089,19 +1089,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1116,10 +1116,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
@@ -1131,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>17</v>
@@ -1148,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -1172,10 +1172,10 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1187,7 +1187,7 @@
         <v>37</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>17</v>
@@ -1201,19 +1201,19 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -1228,10 +1228,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
@@ -1243,7 +1243,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>17</v>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -1284,10 +1284,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
@@ -1299,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>17</v>
@@ -1313,19 +1313,19 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -1340,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
@@ -1355,7 +1355,7 @@
         <v>36</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>17</v>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -1396,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
@@ -1411,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>17</v>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1452,10 +1452,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
@@ -1467,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>17</v>
@@ -1481,19 +1481,19 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -1508,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
@@ -1523,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>17</v>
@@ -1540,16 +1540,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
@@ -1564,10 +1564,10 @@
         <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
@@ -1579,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>17</v>
@@ -1596,16 +1596,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
@@ -1620,10 +1620,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
@@ -1635,7 +1635,7 @@
         <v>34</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>17</v>
@@ -1649,19 +1649,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -1676,10 +1676,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
@@ -1691,7 +1691,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>17</v>
@@ -1708,16 +1708,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
@@ -1732,10 +1732,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
@@ -1747,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>6</v>
@@ -1761,19 +1761,19 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
@@ -1788,10 +1788,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
@@ -1803,13 +1803,13 @@
         <v>27</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>6</v>
@@ -1817,19 +1817,19 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1844,10 +1844,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
@@ -1859,13 +1859,13 @@
         <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
@@ -1876,16 +1876,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
@@ -1900,10 +1900,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
@@ -1915,13 +1915,13 @@
         <v>28</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>6</v>
@@ -1929,19 +1929,19 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1956,10 +1956,10 @@
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
@@ -1971,13 +1971,13 @@
         <v>29</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -1988,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -2012,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
@@ -2027,13 +2027,13 @@
         <v>37</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>6</v>
@@ -2041,19 +2041,19 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>19</v>
@@ -2068,10 +2068,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
@@ -2083,13 +2083,13 @@
         <v>30</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>6</v>
@@ -2097,19 +2097,19 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>19</v>
@@ -2124,10 +2124,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
@@ -2139,13 +2139,13 @@
         <v>26</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>6</v>
@@ -2153,19 +2153,19 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -2180,10 +2180,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
@@ -2195,13 +2195,13 @@
         <v>36</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>6</v>
@@ -2209,19 +2209,19 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -2236,10 +2236,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
@@ -2251,13 +2251,13 @@
         <v>31</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>6</v>
@@ -2265,19 +2265,19 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
@@ -2292,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
@@ -2307,13 +2307,13 @@
         <v>32</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>6</v>
@@ -2321,19 +2321,19 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -2348,10 +2348,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
@@ -2363,13 +2363,13 @@
         <v>33</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>6</v>
@@ -2380,16 +2380,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -2404,10 +2404,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
@@ -2419,13 +2419,13 @@
         <v>25</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>6</v>
@@ -2436,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
@@ -2460,10 +2460,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
@@ -2475,13 +2475,13 @@
         <v>34</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>6</v>
@@ -2489,19 +2489,19 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
@@ -2516,10 +2516,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
@@ -2531,13 +2531,13 @@
         <v>35</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" t="s">
         <v>92</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>93</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>6</v>
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="117">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,70 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反例-已存在的银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdBankGenerator.getUsedBankCard(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +353,138 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,16 +843,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="39.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
@@ -812,13 +876,13 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -836,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -868,16 +932,16 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -892,16 +956,16 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
@@ -924,16 +988,16 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -948,10 +1012,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -980,16 +1044,16 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -1004,10 +1068,10 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
@@ -1036,16 +1100,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1060,10 +1124,10 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
@@ -1092,16 +1156,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1116,10 +1180,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
@@ -1148,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -1172,10 +1236,10 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1204,16 +1268,16 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -1228,10 +1292,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
@@ -1260,16 +1324,16 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -1284,10 +1348,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
@@ -1316,16 +1380,16 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -1340,10 +1404,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
@@ -1372,16 +1436,16 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -1396,10 +1460,10 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
@@ -1428,16 +1492,16 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1452,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
@@ -1484,16 +1548,16 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -1508,10 +1572,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
@@ -1540,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
@@ -1564,10 +1628,10 @@
         <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
@@ -1596,16 +1660,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
@@ -1620,10 +1684,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
@@ -1652,16 +1716,16 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -1676,10 +1740,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
@@ -1708,16 +1772,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
@@ -1732,10 +1796,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
@@ -1747,13 +1811,13 @@
         <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>6</v>
@@ -1761,19 +1825,19 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
@@ -1788,10 +1852,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
@@ -1803,13 +1867,13 @@
         <v>27</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>6</v>
@@ -1817,19 +1881,19 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1844,10 +1908,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
@@ -1859,13 +1923,13 @@
         <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
@@ -1876,16 +1940,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
@@ -1900,10 +1964,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
@@ -1915,13 +1979,13 @@
         <v>28</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q20" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>6</v>
@@ -1929,19 +1993,19 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1956,10 +2020,10 @@
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
@@ -1971,13 +2035,13 @@
         <v>29</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q21" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -1988,16 +2052,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -2012,10 +2076,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
@@ -2027,13 +2091,13 @@
         <v>37</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q22" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>6</v>
@@ -2041,19 +2105,19 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>19</v>
@@ -2068,10 +2132,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
@@ -2083,13 +2147,13 @@
         <v>30</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q23" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>6</v>
@@ -2097,19 +2161,19 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>19</v>
@@ -2124,10 +2188,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
@@ -2139,13 +2203,13 @@
         <v>26</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q24" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>6</v>
@@ -2153,19 +2217,19 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
@@ -2180,10 +2244,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
@@ -2195,13 +2259,13 @@
         <v>36</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q25" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>6</v>
@@ -2209,19 +2273,19 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -2236,10 +2300,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
@@ -2251,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q26" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>6</v>
@@ -2265,19 +2329,19 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
@@ -2292,10 +2356,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
@@ -2307,13 +2371,13 @@
         <v>32</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q27" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>6</v>
@@ -2321,19 +2385,19 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -2348,10 +2412,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
@@ -2363,13 +2427,13 @@
         <v>33</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q28" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>6</v>
@@ -2380,16 +2444,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -2404,10 +2468,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
@@ -2419,13 +2483,13 @@
         <v>25</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q29" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>6</v>
@@ -2436,16 +2500,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
@@ -2460,10 +2524,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
@@ -2475,13 +2539,13 @@
         <v>34</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q30" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>6</v>
@@ -2492,16 +2556,16 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
@@ -2516,10 +2580,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
@@ -2531,13 +2595,13 @@
         <v>35</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q31" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>6</v>
@@ -2565,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="169">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,214 @@
   </si>
   <si>
     <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入有效的银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
+      <selection activeCell="M32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2607,6 +2815,1566 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="4230"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="167">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,619 +81,611 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡已存在！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入有效的银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡已存在！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李双双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入有效的银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
-      <selection activeCell="M32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1081,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1102,13 +1095,13 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -1123,69 +1116,69 @@
         <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>6</v>
@@ -1193,55 +1186,55 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>6</v>
@@ -1249,55 +1242,55 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>6</v>
@@ -1308,52 +1301,52 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>6</v>
@@ -1361,55 +1354,55 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>6</v>
@@ -1420,52 +1413,52 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>6</v>
@@ -1473,55 +1466,55 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>6</v>
@@ -1529,55 +1522,55 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>6</v>
@@ -1585,55 +1578,55 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>6</v>
@@ -1641,55 +1634,55 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>6</v>
@@ -1697,55 +1690,55 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>6</v>
@@ -1753,55 +1746,55 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>6</v>
@@ -1812,52 +1805,52 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>6</v>
@@ -1868,52 +1861,52 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>6</v>
@@ -1921,55 +1914,55 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>6</v>
@@ -1980,52 +1973,52 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>6</v>
@@ -2033,55 +2026,55 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>6</v>
@@ -2089,55 +2082,55 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
@@ -2148,52 +2141,52 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>6</v>
@@ -2201,55 +2194,55 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -2260,52 +2253,52 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>6</v>
@@ -2313,55 +2306,55 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>6</v>
@@ -2369,55 +2362,55 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>6</v>
@@ -2425,55 +2418,55 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>6</v>
@@ -2481,55 +2474,55 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>6</v>
@@ -2537,55 +2530,55 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>6</v>
@@ -2593,55 +2586,55 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>6</v>
@@ -2652,52 +2645,52 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
         <v>72</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>75</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>6</v>
@@ -2708,52 +2701,52 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>6</v>
@@ -2761,55 +2754,55 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>6</v>
@@ -2817,1562 +2810,1562 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q38" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" t="s">
         <v>163</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4397,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
